--- a/TCC EXCEL FILES/TCC 2017.xlsx
+++ b/TCC EXCEL FILES/TCC 2017.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NodeJS WebApps\JSONFILEUPLOAD\TCC EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5E0F56-4FA3-43C9-A463-8462B359C20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDCA0B7-87FA-4E57-B19C-13D9324DB01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="742">
   <si>
     <t>Judges Names</t>
   </si>
@@ -2243,6 +2243,9 @@
   </si>
   <si>
     <t>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/420934/index.do</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -2619,15 +2622,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:N202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2665,10 +2668,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>741</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2705,11 +2711,14 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2746,11 +2755,14 @@
       <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2787,11 +2799,14 @@
       <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2828,11 +2843,14 @@
       <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2869,11 +2887,14 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2910,11 +2931,14 @@
       <c r="L7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2951,11 +2975,14 @@
       <c r="L8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2992,11 +3019,14 @@
       <c r="L9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -3033,11 +3063,14 @@
       <c r="L10" t="s">
         <v>23</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -3074,11 +3107,14 @@
       <c r="L11" t="s">
         <v>23</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -3115,11 +3151,14 @@
       <c r="L12" t="s">
         <v>23</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3156,11 +3195,14 @@
       <c r="L13" t="s">
         <v>23</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -3197,11 +3239,14 @@
       <c r="L14" t="s">
         <v>22</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -3238,11 +3283,14 @@
       <c r="L15" t="s">
         <v>23</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3279,11 +3327,14 @@
       <c r="L16" t="s">
         <v>23</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3320,11 +3371,14 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -3361,11 +3415,14 @@
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -3402,11 +3459,14 @@
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -3443,11 +3503,14 @@
       <c r="L20" t="s">
         <v>22</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3484,11 +3547,14 @@
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -3525,11 +3591,14 @@
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -3566,11 +3635,14 @@
       <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -3607,11 +3679,14 @@
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3648,11 +3723,14 @@
       <c r="L25" t="s">
         <v>22</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -3689,11 +3767,14 @@
       <c r="L26" t="s">
         <v>22</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -3730,11 +3811,14 @@
       <c r="L27" t="s">
         <v>23</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -3771,11 +3855,14 @@
       <c r="L28" t="s">
         <v>23</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -3812,11 +3899,14 @@
       <c r="L29" t="s">
         <v>23</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -3853,11 +3943,14 @@
       <c r="L30" t="s">
         <v>23</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -3894,11 +3987,14 @@
       <c r="L31" t="s">
         <v>23</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -3935,11 +4031,14 @@
       <c r="L32" t="s">
         <v>22</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -3976,11 +4075,14 @@
       <c r="L33" t="s">
         <v>22</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -4017,11 +4119,14 @@
       <c r="L34" t="s">
         <v>23</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -4058,11 +4163,14 @@
       <c r="L35" t="s">
         <v>23</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -4099,11 +4207,14 @@
       <c r="L36" t="s">
         <v>22</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>189</v>
       </c>
@@ -4140,11 +4251,14 @@
       <c r="L37" t="s">
         <v>23</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>193</v>
       </c>
@@ -4181,11 +4295,14 @@
       <c r="L38" t="s">
         <v>23</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -4222,11 +4339,14 @@
       <c r="L39" t="s">
         <v>22</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -4263,11 +4383,14 @@
       <c r="L40" t="s">
         <v>22</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -4304,11 +4427,14 @@
       <c r="L41" t="s">
         <v>22</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -4345,11 +4471,14 @@
       <c r="L42" t="s">
         <v>23</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -4386,11 +4515,14 @@
       <c r="L43" t="s">
         <v>23</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -4427,11 +4559,14 @@
       <c r="L44" t="s">
         <v>23</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -4468,11 +4603,14 @@
       <c r="L45" t="s">
         <v>23</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -4509,11 +4647,14 @@
       <c r="L46" t="s">
         <v>23</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -4550,11 +4691,14 @@
       <c r="L47" t="s">
         <v>23</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -4591,11 +4735,14 @@
       <c r="L48" t="s">
         <v>23</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -4632,11 +4779,14 @@
       <c r="L49" t="s">
         <v>23</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -4673,11 +4823,14 @@
       <c r="L50" t="s">
         <v>23</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -4714,11 +4867,14 @@
       <c r="L51" t="s">
         <v>22</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -4755,11 +4911,14 @@
       <c r="L52" t="s">
         <v>23</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -4796,11 +4955,14 @@
       <c r="L53" t="s">
         <v>23</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -4837,11 +4999,14 @@
       <c r="L54" t="s">
         <v>23</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>254</v>
       </c>
@@ -4878,11 +5043,14 @@
       <c r="L55" t="s">
         <v>23</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -4919,11 +5087,14 @@
       <c r="L56" t="s">
         <v>23</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -4960,11 +5131,14 @@
       <c r="L57" t="s">
         <v>23</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -5001,11 +5175,14 @@
       <c r="L58" t="s">
         <v>22</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -5042,11 +5219,14 @@
       <c r="L59" t="s">
         <v>22</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -5083,11 +5263,14 @@
       <c r="L60" t="s">
         <v>23</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -5124,11 +5307,14 @@
       <c r="L61" t="s">
         <v>23</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -5165,11 +5351,14 @@
       <c r="L62" t="s">
         <v>23</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>163</v>
       </c>
@@ -5206,11 +5395,14 @@
       <c r="L63" t="s">
         <v>23</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -5247,11 +5439,14 @@
       <c r="L64" t="s">
         <v>23</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>163</v>
       </c>
@@ -5288,11 +5483,14 @@
       <c r="L65" t="s">
         <v>23</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -5329,11 +5527,14 @@
       <c r="L66" t="s">
         <v>23</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>299</v>
       </c>
@@ -5370,11 +5571,14 @@
       <c r="L67" t="s">
         <v>22</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>306</v>
       </c>
@@ -5411,11 +5615,14 @@
       <c r="L68" t="s">
         <v>23</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>310</v>
       </c>
@@ -5452,11 +5659,14 @@
       <c r="L69" t="s">
         <v>23</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -5493,11 +5703,14 @@
       <c r="L70" t="s">
         <v>23</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>306</v>
       </c>
@@ -5534,11 +5747,14 @@
       <c r="L71" t="s">
         <v>23</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>163</v>
       </c>
@@ -5575,11 +5791,14 @@
       <c r="L72" t="s">
         <v>23</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>163</v>
       </c>
@@ -5616,11 +5835,14 @@
       <c r="L73" t="s">
         <v>23</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -5657,11 +5879,14 @@
       <c r="L74" t="s">
         <v>23</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>333</v>
       </c>
@@ -5698,11 +5923,14 @@
       <c r="L75" t="s">
         <v>23</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -5739,11 +5967,14 @@
       <c r="L76" t="s">
         <v>23</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -5780,11 +6011,14 @@
       <c r="L77" t="s">
         <v>23</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -5821,11 +6055,14 @@
       <c r="L78" t="s">
         <v>22</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -5862,11 +6099,14 @@
       <c r="L79" t="s">
         <v>23</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>351</v>
       </c>
@@ -5903,11 +6143,14 @@
       <c r="L80" t="s">
         <v>22</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -5944,11 +6187,14 @@
       <c r="L81" t="s">
         <v>23</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -5985,11 +6231,14 @@
       <c r="L82" t="s">
         <v>23</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>53</v>
       </c>
@@ -6023,11 +6272,14 @@
       <c r="L83" t="s">
         <v>22</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -6064,11 +6316,14 @@
       <c r="L84" t="s">
         <v>23</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>62</v>
       </c>
@@ -6105,11 +6360,14 @@
       <c r="L85" t="s">
         <v>23</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -6146,11 +6404,14 @@
       <c r="L86" t="s">
         <v>23</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>25</v>
       </c>
@@ -6187,11 +6448,14 @@
       <c r="L87" t="s">
         <v>23</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -6228,11 +6492,14 @@
       <c r="L88" t="s">
         <v>23</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>25</v>
       </c>
@@ -6269,11 +6536,14 @@
       <c r="L89" t="s">
         <v>23</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>67</v>
       </c>
@@ -6310,11 +6580,14 @@
       <c r="L90" t="s">
         <v>23</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>163</v>
       </c>
@@ -6351,11 +6624,14 @@
       <c r="L91" t="s">
         <v>23</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -6392,11 +6668,14 @@
       <c r="L92" t="s">
         <v>23</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>163</v>
       </c>
@@ -6433,11 +6712,14 @@
       <c r="L93" t="s">
         <v>23</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>392</v>
       </c>
@@ -6474,11 +6756,14 @@
       <c r="L94" t="s">
         <v>22</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>396</v>
       </c>
@@ -6515,11 +6800,14 @@
       <c r="L95" t="s">
         <v>23</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>53</v>
       </c>
@@ -6556,11 +6844,14 @@
       <c r="L96" t="s">
         <v>22</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>125</v>
       </c>
@@ -6597,11 +6888,14 @@
       <c r="L97" t="s">
         <v>23</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -6638,11 +6932,14 @@
       <c r="L98" t="s">
         <v>23</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>25</v>
       </c>
@@ -6679,11 +6976,14 @@
       <c r="L99" t="s">
         <v>23</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>67</v>
       </c>
@@ -6720,11 +7020,14 @@
       <c r="L100" t="s">
         <v>23</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>75</v>
       </c>
@@ -6761,11 +7064,14 @@
       <c r="L101" t="s">
         <v>23</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -6802,11 +7108,14 @@
       <c r="L102" t="s">
         <v>22</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>67</v>
       </c>
@@ -6843,11 +7152,14 @@
       <c r="L103" t="s">
         <v>23</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>67</v>
       </c>
@@ -6884,11 +7196,14 @@
       <c r="L104" t="s">
         <v>23</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>430</v>
       </c>
@@ -6925,11 +7240,14 @@
       <c r="L105" t="s">
         <v>23</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>131</v>
       </c>
@@ -6966,11 +7284,14 @@
       <c r="L106" t="s">
         <v>23</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -7007,11 +7328,14 @@
       <c r="L107" t="s">
         <v>23</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>193</v>
       </c>
@@ -7048,11 +7372,14 @@
       <c r="L108" t="s">
         <v>23</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>67</v>
       </c>
@@ -7089,11 +7416,14 @@
       <c r="L109" t="s">
         <v>23</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>75</v>
       </c>
@@ -7130,11 +7460,14 @@
       <c r="L110" t="s">
         <v>23</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>53</v>
       </c>
@@ -7171,11 +7504,14 @@
       <c r="L111" t="s">
         <v>22</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>193</v>
       </c>
@@ -7212,11 +7548,14 @@
       <c r="L112" t="s">
         <v>23</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>184</v>
       </c>
@@ -7253,11 +7592,14 @@
       <c r="L113" t="s">
         <v>22</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>163</v>
       </c>
@@ -7294,11 +7636,14 @@
       <c r="L114" t="s">
         <v>23</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>163</v>
       </c>
@@ -7335,11 +7680,14 @@
       <c r="L115" t="s">
         <v>23</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>148</v>
       </c>
@@ -7376,11 +7724,14 @@
       <c r="L116" t="s">
         <v>23</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>75</v>
       </c>
@@ -7417,11 +7768,14 @@
       <c r="L117" t="s">
         <v>23</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>48</v>
       </c>
@@ -7458,11 +7812,14 @@
       <c r="L118" t="s">
         <v>23</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>158</v>
       </c>
@@ -7499,11 +7856,14 @@
       <c r="L119" t="s">
         <v>23</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -7540,11 +7900,14 @@
       <c r="L120" t="s">
         <v>23</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>158</v>
       </c>
@@ -7581,11 +7944,14 @@
       <c r="L121" t="s">
         <v>23</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>193</v>
       </c>
@@ -7622,11 +7988,14 @@
       <c r="L122" t="s">
         <v>23</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -7663,11 +8032,14 @@
       <c r="L123" t="s">
         <v>23</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>62</v>
       </c>
@@ -7704,11 +8076,14 @@
       <c r="L124" t="s">
         <v>23</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>501</v>
       </c>
@@ -7745,11 +8120,14 @@
       <c r="L125" t="s">
         <v>23</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -7786,11 +8164,14 @@
       <c r="L126" t="s">
         <v>22</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>120</v>
       </c>
@@ -7827,11 +8208,14 @@
       <c r="L127" t="s">
         <v>23</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>25</v>
       </c>
@@ -7868,11 +8252,14 @@
       <c r="L128" t="s">
         <v>23</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>67</v>
       </c>
@@ -7909,11 +8296,14 @@
       <c r="L129" t="s">
         <v>23</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>193</v>
       </c>
@@ -7950,11 +8340,14 @@
       <c r="L130" t="s">
         <v>23</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>310</v>
       </c>
@@ -7991,11 +8384,14 @@
       <c r="L131" t="s">
         <v>23</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>193</v>
       </c>
@@ -8032,11 +8428,14 @@
       <c r="L132" t="s">
         <v>23</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>193</v>
       </c>
@@ -8073,11 +8472,14 @@
       <c r="L133" t="s">
         <v>23</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -8114,11 +8516,14 @@
       <c r="L134" t="s">
         <v>22</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>62</v>
       </c>
@@ -8155,11 +8560,14 @@
       <c r="L135" t="s">
         <v>23</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>131</v>
       </c>
@@ -8196,11 +8604,14 @@
       <c r="L136" t="s">
         <v>23</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>75</v>
       </c>
@@ -8237,11 +8648,14 @@
       <c r="L137" t="s">
         <v>23</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>148</v>
       </c>
@@ -8278,11 +8692,14 @@
       <c r="L138" t="s">
         <v>23</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>545</v>
       </c>
@@ -8319,11 +8736,14 @@
       <c r="L139" t="s">
         <v>23</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>299</v>
       </c>
@@ -8360,11 +8780,14 @@
       <c r="L140" t="s">
         <v>22</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>392</v>
       </c>
@@ -8401,11 +8824,14 @@
       <c r="L141" t="s">
         <v>22</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>193</v>
       </c>
@@ -8442,11 +8868,14 @@
       <c r="L142" t="s">
         <v>23</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>62</v>
       </c>
@@ -8483,11 +8912,14 @@
       <c r="L143" t="s">
         <v>23</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>25</v>
       </c>
@@ -8524,11 +8956,14 @@
       <c r="L144" t="s">
         <v>23</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>254</v>
       </c>
@@ -8565,11 +9000,14 @@
       <c r="L145" t="s">
         <v>23</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -8606,11 +9044,14 @@
       <c r="L146" t="s">
         <v>23</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>25</v>
       </c>
@@ -8647,11 +9088,14 @@
       <c r="L147" t="s">
         <v>23</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>53</v>
       </c>
@@ -8688,11 +9132,14 @@
       <c r="L148" t="s">
         <v>22</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>34</v>
       </c>
@@ -8729,11 +9176,14 @@
       <c r="L149" t="s">
         <v>23</v>
       </c>
-      <c r="M149" t="s">
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -8770,11 +9220,14 @@
       <c r="L150" t="s">
         <v>23</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>136</v>
       </c>
@@ -8811,11 +9264,14 @@
       <c r="L151" t="s">
         <v>22</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>75</v>
       </c>
@@ -8852,11 +9308,14 @@
       <c r="L152" t="s">
         <v>23</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -8893,11 +9352,14 @@
       <c r="L153" t="s">
         <v>23</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>141</v>
       </c>
@@ -8934,11 +9396,14 @@
       <c r="L154" t="s">
         <v>22</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>75</v>
       </c>
@@ -8975,11 +9440,14 @@
       <c r="L155" t="s">
         <v>23</v>
       </c>
-      <c r="M155" t="s">
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>396</v>
       </c>
@@ -9016,11 +9484,14 @@
       <c r="L156" t="s">
         <v>23</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>611</v>
       </c>
@@ -9057,11 +9528,14 @@
       <c r="L157" t="s">
         <v>22</v>
       </c>
-      <c r="M157" t="s">
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>189</v>
       </c>
@@ -9098,11 +9572,14 @@
       <c r="L158" t="s">
         <v>23</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>75</v>
       </c>
@@ -9139,11 +9616,14 @@
       <c r="L159" t="s">
         <v>23</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>120</v>
       </c>
@@ -9180,11 +9660,14 @@
       <c r="L160" t="s">
         <v>23</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>125</v>
       </c>
@@ -9221,11 +9704,14 @@
       <c r="L161" t="s">
         <v>23</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>75</v>
       </c>
@@ -9262,11 +9748,14 @@
       <c r="L162" t="s">
         <v>23</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>148</v>
       </c>
@@ -9303,11 +9792,14 @@
       <c r="L163" t="s">
         <v>23</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>107</v>
       </c>
@@ -9344,11 +9836,14 @@
       <c r="L164" t="s">
         <v>23</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>632</v>
       </c>
@@ -9385,11 +9880,14 @@
       <c r="L165" t="s">
         <v>23</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>125</v>
       </c>
@@ -9426,11 +9924,14 @@
       <c r="L166" t="s">
         <v>23</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>67</v>
       </c>
@@ -9467,11 +9968,14 @@
       <c r="L167" t="s">
         <v>23</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>34</v>
       </c>
@@ -9508,11 +10012,14 @@
       <c r="L168" t="s">
         <v>23</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>53</v>
       </c>
@@ -9549,11 +10056,14 @@
       <c r="L169" t="s">
         <v>22</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>131</v>
       </c>
@@ -9590,11 +10100,14 @@
       <c r="L170" t="s">
         <v>23</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>75</v>
       </c>
@@ -9631,11 +10144,14 @@
       <c r="L171" t="s">
         <v>23</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>34</v>
       </c>
@@ -9672,11 +10188,14 @@
       <c r="L172" t="s">
         <v>23</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>148</v>
       </c>
@@ -9713,11 +10232,14 @@
       <c r="L173" t="s">
         <v>23</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>53</v>
       </c>
@@ -9754,11 +10276,14 @@
       <c r="L174" t="s">
         <v>22</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>120</v>
       </c>
@@ -9795,11 +10320,14 @@
       <c r="L175" t="s">
         <v>23</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>62</v>
       </c>
@@ -9836,11 +10364,14 @@
       <c r="L176" t="s">
         <v>23</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>141</v>
       </c>
@@ -9877,11 +10408,14 @@
       <c r="L177" t="s">
         <v>22</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>193</v>
       </c>
@@ -9918,11 +10452,14 @@
       <c r="L178" t="s">
         <v>23</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -9959,11 +10496,14 @@
       <c r="L179" t="s">
         <v>22</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>163</v>
       </c>
@@ -10000,11 +10540,14 @@
       <c r="L180" t="s">
         <v>23</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>392</v>
       </c>
@@ -10041,11 +10584,14 @@
       <c r="L181" t="s">
         <v>22</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -10082,11 +10628,14 @@
       <c r="L182" t="s">
         <v>22</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>136</v>
       </c>
@@ -10123,11 +10672,14 @@
       <c r="L183" t="s">
         <v>22</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>693</v>
       </c>
@@ -10164,11 +10716,14 @@
       <c r="L184" t="s">
         <v>22</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>125</v>
       </c>
@@ -10205,11 +10760,14 @@
       <c r="L185" t="s">
         <v>23</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>254</v>
       </c>
@@ -10246,11 +10804,14 @@
       <c r="L186" t="s">
         <v>23</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -10287,11 +10848,14 @@
       <c r="L187" t="s">
         <v>23</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>107</v>
       </c>
@@ -10328,11 +10892,14 @@
       <c r="L188" t="s">
         <v>23</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -10369,11 +10936,14 @@
       <c r="L189" t="s">
         <v>22</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>48</v>
       </c>
@@ -10410,11 +10980,14 @@
       <c r="L190" t="s">
         <v>23</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>131</v>
       </c>
@@ -10451,11 +11024,14 @@
       <c r="L191" t="s">
         <v>23</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>184</v>
       </c>
@@ -10492,11 +11068,14 @@
       <c r="L192" t="s">
         <v>22</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>62</v>
       </c>
@@ -10533,11 +11112,14 @@
       <c r="L193" t="s">
         <v>23</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>148</v>
       </c>
@@ -10574,11 +11156,14 @@
       <c r="L194" t="s">
         <v>23</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>727</v>
       </c>
@@ -10615,11 +11200,14 @@
       <c r="L195" t="s">
         <v>22</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>67</v>
       </c>
@@ -10656,11 +11244,14 @@
       <c r="L196" t="s">
         <v>23</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>34</v>
       </c>
@@ -10697,11 +11288,14 @@
       <c r="L197" t="s">
         <v>23</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>53</v>
       </c>
@@ -10738,14 +11332,37 @@
       <c r="L198" t="s">
         <v>22</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198" t="s">
         <v>740</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M202">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M54 A56:M198 A55:I55 K55:M55" numberStoredAsText="1"/>
+    <ignoredError sqref="A55:I55 N1:N198 K55:L55 A56:L198 A1:L54" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>